--- a/src/main/resources/AmazonIndia.xlsx
+++ b/src/main/resources/AmazonIndia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prabh\IdeaProjects\AmazonIndiaKeywordDrivenFramework\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DCD4C9-4D80-4E31-8A68-152BA5B25D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C98095-AB86-43BD-A6A6-CE53C70AF3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{4DF61A3E-747D-4F93-97C6-EFE4B3C1F08F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4DF61A3E-747D-4F93-97C6-EFE4B3C1F08F}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>locatorType</t>
   </si>
@@ -525,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845169CE-15C9-4A6F-A86E-B4A132BC8515}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -702,10 +702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535E2B4E-CDA3-46B6-90A1-FB3271610127}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -736,161 +736,39 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{105FC490-7477-4893-92B4-CA58F414A01A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/AmazonIndia.xlsx
+++ b/src/main/resources/AmazonIndia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prabh\IdeaProjects\AmazonIndiaKeywordDrivenFramework\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C98095-AB86-43BD-A6A6-CE53C70AF3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E5B617-C764-4C12-BBE7-07C57A710E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4DF61A3E-747D-4F93-97C6-EFE4B3C1F08F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>locatorType</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>closing the browser</t>
-  </si>
-  <si>
-    <t>quit</t>
   </si>
   <si>
     <t>(//span[@class='nav-action-inner'])[2]</t>
@@ -597,7 +594,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -614,24 +611,24 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -648,13 +645,13 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -665,7 +662,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -685,7 +682,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -736,13 +733,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -753,16 +750,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>

--- a/src/main/resources/AmazonIndia.xlsx
+++ b/src/main/resources/AmazonIndia.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prabh\IdeaProjects\AmazonIndiaKeywordDrivenFramework\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E5B617-C764-4C12-BBE7-07C57A710E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6D6858-3627-4415-8172-5C497144C0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4DF61A3E-747D-4F93-97C6-EFE4B3C1F08F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{4DF61A3E-747D-4F93-97C6-EFE4B3C1F08F}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="home" sheetId="2" r:id="rId2"/>
+    <sheet name="addAddress" sheetId="3" r:id="rId3"/>
+    <sheet name="searchBar" sheetId="4" r:id="rId4"/>
+    <sheet name="searchProduct" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="76">
   <si>
     <t>locatorType</t>
   </si>
@@ -139,13 +142,139 @@
   </si>
   <si>
     <t>doubleClick</t>
+  </si>
+  <si>
+    <t>add address</t>
+  </si>
+  <si>
+    <t>//div[@id='ya-myab-plus-address-icon']</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>//input[@id='address-ui-widgets-enterAddressFullName']</t>
+  </si>
+  <si>
+    <t>Prabhakaran</t>
+  </si>
+  <si>
+    <t>mobile number</t>
+  </si>
+  <si>
+    <t>//input[@id='address-ui-widgets-enterAddressPhoneNumber']</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>//input[@id='address-ui-widgets-enterAddressPostalCode']</t>
+  </si>
+  <si>
+    <t>603306</t>
+  </si>
+  <si>
+    <t>flat no</t>
+  </si>
+  <si>
+    <t>//input[@id='address-ui-widgets-enterAddressLine1']</t>
+  </si>
+  <si>
+    <t>no.1,Thambiran House</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>//input[@id='address-ui-widgets-enterAddressLine2']</t>
+  </si>
+  <si>
+    <t>Thambiran Nagar</t>
+  </si>
+  <si>
+    <t>landmark</t>
+  </si>
+  <si>
+    <t>//input[@id='address-ui-widgets-landmark']</t>
+  </si>
+  <si>
+    <t>Gayathri Store</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>//input[@id='address-ui-widgets-enterAddressCity']</t>
+  </si>
+  <si>
+    <t>Maduranthakam</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>(//span[@class='a-button-text a-declarative'])[2]</t>
+  </si>
+  <si>
+    <t>mouseOver</t>
+  </si>
+  <si>
+    <t>state name</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'TAMIL NADU')]</t>
+  </si>
+  <si>
+    <t>add address button</t>
+  </si>
+  <si>
+    <t>(//input[@class='a-button-input'])[3]</t>
+  </si>
+  <si>
+    <t>search bar</t>
+  </si>
+  <si>
+    <t>//input[@id='twotabsearchtextbox']</t>
+  </si>
+  <si>
+    <t>search tab</t>
+  </si>
+  <si>
+    <t>//input[@id='nav-search-submit-button']</t>
+  </si>
+  <si>
+    <t>search bar text</t>
+  </si>
+  <si>
+    <t>Headphones</t>
+  </si>
+  <si>
+    <t>product name</t>
+  </si>
+  <si>
+    <t>(//span[@class='a-size-medium a-color-base a-text-normal'])[1]</t>
+  </si>
+  <si>
+    <t>//input[@id='add-to-cart-button']</t>
+  </si>
+  <si>
+    <t>add to cart</t>
+  </si>
+  <si>
+    <t>childWindow</t>
+  </si>
+  <si>
+    <t>scroll</t>
+  </si>
+  <si>
+    <t>child window</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +303,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A84DB"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -199,12 +335,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -522,7 +662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845169CE-15C9-4A6F-A86E-B4A132BC8515}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -702,7 +842,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -768,4 +908,428 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001F0CCD-8BAA-476C-B426-2C049DD67F28}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="60.26953125" customWidth="1"/>
+    <col min="4" max="4" width="25.36328125" customWidth="1"/>
+    <col min="5" max="5" width="24.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2380CC2E-95A5-4EC8-ADF2-306B58700129}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="3" max="3" width="43.1796875" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DB35E6-1FEC-48FC-99BE-E34073A68C72}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="54.08984375" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/AmazonIndia.xlsx
+++ b/src/main/resources/AmazonIndia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prabh\IdeaProjects\AmazonIndiaKeywordDrivenFramework\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6D6858-3627-4415-8172-5C497144C0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D109B62-4DE0-49C3-9EE4-4539CA3EBB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{4DF61A3E-747D-4F93-97C6-EFE4B3C1F08F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="77">
   <si>
     <t>locatorType</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>child window</t>
+  </si>
+  <si>
+    <t>quit</t>
   </si>
 </sst>
 </file>
@@ -663,7 +666,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -822,7 +825,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -839,19 +842,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535E2B4E-CDA3-46B6-90A1-FB3271610127}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.81640625" customWidth="1"/>
     <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="45.453125" customWidth="1"/>
     <col min="4" max="4" width="17.08984375" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" customWidth="1"/>
+    <col min="5" max="5" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -873,49 +876,188 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{314475A2-C793-4E3C-89FA-471EB5D6C5A7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001F0CCD-8BAA-476C-B426-2C049DD67F28}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -946,152 +1088,152 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>43</v>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
-        <v>49</v>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>57</v>
+      <c r="C10" t="s">
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -1099,13 +1241,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1116,40 +1258,215 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>61</v>
       </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
         <v>62</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{73689A57-045F-44A4-B70D-D5871C5FA43E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2380CC2E-95A5-4EC8-ADF2-306B58700129}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="18.08984375" customWidth="1"/>
-    <col min="3" max="3" width="43.1796875" customWidth="1"/>
+    <col min="3" max="3" width="60.1796875" customWidth="1"/>
     <col min="4" max="4" width="21.1796875" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="5" max="5" width="22.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1171,76 +1488,436 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>64</v>
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>64</v>
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>65</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{BC497886-1D0F-4A45-8FB7-4254F5096DE8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DB35E6-1FEC-48FC-99BE-E34073A68C72}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.08984375" customWidth="1"/>
     <col min="2" max="2" width="21.26953125" customWidth="1"/>
-    <col min="3" max="3" width="54.08984375" customWidth="1"/>
+    <col min="3" max="3" width="62.7265625" customWidth="1"/>
     <col min="4" max="4" width="16.08984375" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1262,74 +1939,485 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>71</v>
+      <c r="C4" t="s">
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>72</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{1A310C73-DEFF-403C-8889-6557D37E6157}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>